--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value662.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value662.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.776788008182716</v>
+        <v>1.347249388694763</v>
       </c>
       <c r="B1">
-        <v>2.080276503773218</v>
+        <v>2.334668159484863</v>
       </c>
       <c r="C1">
-        <v>2.139052224554363</v>
+        <v>2.835295677185059</v>
       </c>
       <c r="D1">
-        <v>2.611338521276661</v>
+        <v>3.268305063247681</v>
       </c>
       <c r="E1">
-        <v>2.927624839347218</v>
+        <v>1.970446467399597</v>
       </c>
     </row>
   </sheetData>
